--- a/public/sample/product_sample.xlsx
+++ b/public/sample/product_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\laragon\www\ecom-backend\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6900C44F-56FC-4DA4-BFE5-8F49D8E748C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9FAFF6-4506-483C-AF81-2EC557C2E95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2E5A4527-8C95-4FC2-812B-AD4FAF0D19B7}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7270" xr2:uid="{2E5A4527-8C95-4FC2-812B-AD4FAF0D19B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -42,9 +42,6 @@
     <t>sku</t>
   </si>
   <si>
-    <t>barcode</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -55,6 +52,18 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>physical</t>
+  </si>
+  <si>
+    <t>TESTING</t>
+  </si>
+  <si>
+    <t>SKU001</t>
+  </si>
+  <si>
+    <t>This is testing product</t>
   </si>
 </sst>
 </file>
@@ -428,18 +437,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE18F4D2-D890-43AD-A1CC-09C1CA870676}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="12.08984375" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +458,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -458,8 +467,25 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
